--- a/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
@@ -32,7 +32,7 @@
     <t>Row</t>
   </si>
   <si>
-    <t>剧情语音ID</t>
+    <t>PlotID</t>
   </si>
   <si>
     <t>Extern Source Name</t>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
@@ -1,215 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>PlotID</t>
-  </si>
-  <si>
-    <t>Extern Source Name</t>
-  </si>
-  <si>
-    <t>Extern Source ID</t>
-  </si>
-  <si>
-    <t>Event ID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -509,161 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -909,7 +869,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -918,7 +878,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -931,11 +891,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1187,41 +1210,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col width="4.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="18.25" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>PlotID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Extern Source Name</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Extern Source ID</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Event ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>v12</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>c12</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="0" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="0" t="n"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="0" t="n"/>
+      <c r="D26" s="0" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="0" t="n"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="0" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="0" t="n"/>
+      <c r="D29" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="0" t="n"/>
+      <c r="D30" s="0" t="n"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="0" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="0" t="n"/>
+      <c r="D32" s="0" t="n"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="0" t="n"/>
+      <c r="D33" s="0" t="n"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="0" t="n"/>
+      <c r="D34" s="0" t="n"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="0" t="n"/>
+      <c r="D35" s="0" t="n"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="0" t="n"/>
+      <c r="D36" s="0" t="n"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="0" t="n"/>
+      <c r="D37" s="0" t="n"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="0" t="n"/>
+      <c r="D38" s="0" t="n"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="0" t="n"/>
+      <c r="D39" s="0" t="n"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="0" t="n"/>
+      <c r="D40" s="0" t="n"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="0" t="n"/>
+      <c r="D41" s="0" t="n"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="0" t="n"/>
+      <c r="D42" s="0" t="n"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="0" t="n"/>
+      <c r="D43" s="0" t="n"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="0" t="n"/>
+      <c r="D44" s="0" t="n"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="0" t="n"/>
+      <c r="D45" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
@@ -1215,13 +1215,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col width="4.375" customWidth="1" style="1" min="1" max="1"/>
     <col width="11" customWidth="1" style="1" min="2" max="2"/>
@@ -1258,443 +1258,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>v12</t>
+          <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>v12</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>19</v>
+      <c r="E2" s="0" t="n">
+        <v>36003</v>
       </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>c12</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="0" t="n"/>
-      <c r="D24" s="0" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="0" t="n"/>
-      <c r="D25" s="0" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="0" t="n"/>
-      <c r="D26" s="0" t="n"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="0" t="n"/>
-      <c r="D27" s="0" t="n"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="0" t="n"/>
-      <c r="D28" s="0" t="n"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="0" t="n"/>
-      <c r="D29" s="0" t="n"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="0" t="n"/>
-      <c r="D30" s="0" t="n"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="0" t="n"/>
-      <c r="D31" s="0" t="n"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="0" t="n"/>
-      <c r="D32" s="0" t="n"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="0" t="n"/>
-      <c r="D33" s="0" t="n"/>
-    </row>
-    <row r="34">
-      <c r="C34" s="0" t="n"/>
-      <c r="D34" s="0" t="n"/>
-    </row>
-    <row r="35">
-      <c r="C35" s="0" t="n"/>
-      <c r="D35" s="0" t="n"/>
-    </row>
-    <row r="36">
-      <c r="C36" s="0" t="n"/>
-      <c r="D36" s="0" t="n"/>
-    </row>
-    <row r="37">
-      <c r="C37" s="0" t="n"/>
-      <c r="D37" s="0" t="n"/>
-    </row>
-    <row r="38">
-      <c r="C38" s="0" t="n"/>
-      <c r="D38" s="0" t="n"/>
-    </row>
-    <row r="39">
-      <c r="C39" s="0" t="n"/>
-      <c r="D39" s="0" t="n"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="0" t="n"/>
-      <c r="D40" s="0" t="n"/>
-    </row>
-    <row r="41">
-      <c r="C41" s="0" t="n"/>
-      <c r="D41" s="0" t="n"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="0" t="n"/>
-      <c r="D42" s="0" t="n"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="0" t="n"/>
-      <c r="D43" s="0" t="n"/>
-    </row>
-    <row r="44">
-      <c r="C44" s="0" t="n"/>
-      <c r="D44" s="0" t="n"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="0" t="n"/>
-      <c r="D45" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
+++ b/module/waapi/waapi_Auto_Import_ExternalSource/DT_AudioPlotSoundInfo.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1257,23 +1257,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>CG_External_Map_A02_Combat_Boss_Start.wem</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>36003</v>
-      </c>
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
